--- a/Candidate_DB.xlsx
+++ b/Candidate_DB.xlsx
@@ -8,14 +8,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Doc</t>
+    <t>doc</t>
   </si>
   <si>
     <t>Name</t>
@@ -33,10 +33,43 @@
     <t>skills</t>
   </si>
   <si>
-    <t>normalised_count_per</t>
+    <t>normalised_count</t>
   </si>
   <si>
     <t>total_skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/content/Rajat's Resume (1).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJAT AGARWAAL</t>
+  </si>
+  <si>
+    <t>rajatagarwaal30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['MACHINE_LEARNING', 'DEVOPS']</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['PYTHON', 'CNN', 'GITLAB', 'SQL', 'TABLEAU', 'RANDOM FORESTS', 'COMPUTER VISION']</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>GITLAB</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>TABLEAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM FORESTS</t>
   </si>
 </sst>
 </file>
@@ -50,13 +83,11 @@
       <sz val="10.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
       <b/>
-      <sz val="11.000000"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="11.000000"/>
+      <sz val="10.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,12 +126,14 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,13 +649,13 @@
       <selection activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.421875"/>
     <col customWidth="1" min="2" max="2" width="23.8515625"/>
     <col customWidth="1" min="3" max="3" width="25.421875"/>
     <col customWidth="1" min="4" max="4" width="21.28125"/>
-    <col customWidth="1" min="5" max="5" width="29.140625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="35.00390625"/>
     <col customWidth="1" min="6" max="6" width="19.7109375"/>
     <col customWidth="1" min="7" max="7" width="24.28125"/>
     <col customWidth="1" min="8" max="8" width="22.00390625"/>
@@ -654,53 +687,191 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+    <row r="2" ht="25.5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9958168687</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>33.329999999999998</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" ht="25.5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9958168687</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>8.3300000000000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" ht="25.5">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9958168687</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>8.3300000000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" ht="25.5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9958168687</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" ht="25.5">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9958168687</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>8.3300000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" ht="25.5">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9958168687</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>4.1699999999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -709,50 +880,1994 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
+      <c r="A9"/>
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
